--- a/SchedulingData/dynamic9/pso/scheduling2_11.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>223.98</v>
+        <v>220.08</v>
       </c>
       <c r="D2" t="n">
-        <v>261.74</v>
+        <v>267.62</v>
       </c>
       <c r="E2" t="n">
-        <v>12.996</v>
+        <v>10.928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>250.16</v>
+        <v>204.02</v>
       </c>
       <c r="D3" t="n">
-        <v>314.76</v>
+        <v>237.46</v>
       </c>
       <c r="E3" t="n">
-        <v>11.644</v>
+        <v>14.764</v>
       </c>
     </row>
     <row r="4">
@@ -504,55 +504,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>233.4</v>
+        <v>267.62</v>
       </c>
       <c r="D4" t="n">
-        <v>311.2</v>
+        <v>323.68</v>
       </c>
       <c r="E4" t="n">
-        <v>11.04</v>
+        <v>6.952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>261.74</v>
+        <v>218.02</v>
       </c>
       <c r="D5" t="n">
-        <v>319.18</v>
+        <v>272.76</v>
       </c>
       <c r="E5" t="n">
-        <v>9.872</v>
+        <v>11.904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>255.8</v>
+        <v>208.86</v>
       </c>
       <c r="D6" t="n">
-        <v>328.54</v>
+        <v>261.86</v>
       </c>
       <c r="E6" t="n">
-        <v>12.216</v>
+        <v>15.364</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>328.54</v>
+        <v>237.46</v>
       </c>
       <c r="D7" t="n">
-        <v>385.66</v>
+        <v>285.02</v>
       </c>
       <c r="E7" t="n">
-        <v>9.624000000000001</v>
+        <v>11.628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>319.18</v>
+        <v>285.02</v>
       </c>
       <c r="D8" t="n">
-        <v>380.88</v>
+        <v>323.68</v>
       </c>
       <c r="E8" t="n">
-        <v>6.812</v>
+        <v>8.891999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -599,188 +599,207 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>190.9</v>
+        <v>272.76</v>
       </c>
       <c r="D9" t="n">
-        <v>243.9</v>
+        <v>319.98</v>
       </c>
       <c r="E9" t="n">
-        <v>15.16</v>
+        <v>9.311999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>385.66</v>
+        <v>251.54</v>
       </c>
       <c r="D10" t="n">
-        <v>418.66</v>
+        <v>317</v>
       </c>
       <c r="E10" t="n">
-        <v>7.464</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>311.2</v>
+        <v>319.98</v>
       </c>
       <c r="D11" t="n">
-        <v>365.9</v>
+        <v>381.48</v>
       </c>
       <c r="E11" t="n">
-        <v>8.18</v>
+        <v>6.252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>247.98</v>
+        <v>323.68</v>
       </c>
       <c r="D12" t="n">
-        <v>326.98</v>
+        <v>363.58</v>
       </c>
       <c r="E12" t="n">
-        <v>9.992000000000001</v>
+        <v>4.092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>243.9</v>
+        <v>264.98</v>
       </c>
       <c r="D13" t="n">
-        <v>295.9</v>
+        <v>313.36</v>
       </c>
       <c r="E13" t="n">
-        <v>12.08</v>
+        <v>11.764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>314.76</v>
+        <v>313.36</v>
       </c>
       <c r="D14" t="n">
-        <v>365.08</v>
+        <v>352.74</v>
       </c>
       <c r="E14" t="n">
-        <v>8.731999999999999</v>
+        <v>8.956</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>365.9</v>
+        <v>261.86</v>
       </c>
       <c r="D15" t="n">
-        <v>409.66</v>
+        <v>327.64</v>
       </c>
       <c r="E15" t="n">
-        <v>5.424</v>
+        <v>12.396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>295.9</v>
+        <v>327.64</v>
       </c>
       <c r="D16" t="n">
-        <v>360.18</v>
+        <v>387.96</v>
       </c>
       <c r="E16" t="n">
-        <v>9.272</v>
+        <v>9.484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>326.98</v>
+        <v>323.68</v>
       </c>
       <c r="D17" t="n">
-        <v>360.78</v>
+        <v>361.58</v>
       </c>
       <c r="E17" t="n">
-        <v>7.752</v>
+        <v>6.732</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pond13</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>317</v>
+      </c>
+      <c r="D18" t="n">
+        <v>355.86</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>1</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>pond28</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>360.78</v>
-      </c>
-      <c r="D18" t="n">
-        <v>416.56</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.784</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pond47</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>352.74</v>
+      </c>
+      <c r="D19" t="n">
+        <v>411.34</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.716</v>
       </c>
     </row>
   </sheetData>
